--- a/metrics_results.xlsx
+++ b/metrics_results.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,45 +444,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>LightGBM</t>
         </is>
@@ -493,34 +468,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9785281872099827</v>
+        <v>0.9765013472934934</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9681407831399282</v>
+        <v>0.9736502382746938</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9852418987808138</v>
+        <v>0.9594627200639574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9942996682535592</v>
+        <v>0.992716146893118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9895489436368174</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.99423609622814</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8840260436608176</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9911324649972588</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9906255744157916</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9463526754431379</v>
+        <v>0.9929061806938501</v>
       </c>
     </row>
     <row r="3">
@@ -528,34 +488,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9786548095207135</v>
+        <v>0.9768812944933943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9680766091066927</v>
+        <v>0.9746008487507535</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9847348075300744</v>
+        <v>0.9564219384491155</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9934128706060452</v>
+        <v>0.9923994506478004</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9906888253703754</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9936661152275068</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.886433111714189</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9899291316398452</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9916393154448718</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9455905335474876</v>
+        <v>0.9932227565376042</v>
       </c>
     </row>
     <row r="4">
@@ -563,34 +508,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9782742603129961</v>
+        <v>0.9771341779101659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9675064274367872</v>
+        <v>0.9744735441644974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9834683837534947</v>
+        <v>0.9604131298707449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9932226762698955</v>
+        <v>0.9920192626447729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9905624438627709</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9943630396097062</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.887761341626593</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9899920213897391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9908160496889226</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9457809686867641</v>
+        <v>0.9923990493092563</v>
       </c>
     </row>
     <row r="5">
@@ -598,34 +528,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.978527946406856</v>
+        <v>0.9766281301396418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9684569175112836</v>
+        <v>0.9722570717858201</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9858120804507193</v>
+        <v>0.9586397352449891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.993855948358967</v>
+        <v>0.9916386331693463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.989802188258279</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9947429065418986</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8882687940820222</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9907519559233957</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9910692541765295</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9448948533147753</v>
+        <v>0.992716146893118</v>
       </c>
     </row>
     <row r="6">
@@ -633,34 +548,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9789713452306131</v>
+        <v>0.9768180836726652</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9682035524882588</v>
+        <v>0.9730178089965655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9849254032047687</v>
+        <v>0.9579424095242451</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9918293893794583</v>
+        <v>0.9923359990239448</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9891687957676444</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9942993070488694</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8874456085937821</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9902459081528715</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9904992731758963</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9457185605431235</v>
+        <v>0.9922725474000889</v>
       </c>
     </row>
     <row r="7">
@@ -668,34 +568,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9781475978684109</v>
+        <v>0.976437414063384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9679509901423227</v>
+        <v>0.9723210050159292</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9854314509752928</v>
+        <v>0.9575615793795466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.994172805139702</v>
+        <v>0.9927159060899914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9884723931255521</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9950596027872158</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8861158535949099</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9906894273781918</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9911953948810073</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9457182394722879</v>
+        <v>0.9926530163400974</v>
       </c>
     </row>
     <row r="8">
@@ -703,34 +588,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9786544081821692</v>
+        <v>0.9763111128234889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9676334510860622</v>
+        <v>0.9733975153933399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9865717340473947</v>
+        <v>0.9583852063401856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9908160095550681</v>
+        <v>0.9925892837792606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9906259356204815</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9944896217865825</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.8866238277904467</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9903727712667288</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9910056821511104</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.9448948131809211</v>
+        <v>0.9931593851814572</v>
       </c>
     </row>
     <row r="9">
@@ -738,34 +608,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.979034515917488</v>
+        <v>0.9768180034049561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.967316955510017</v>
+        <v>0.9735240574363617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.985242019182377</v>
+        <v>0.9570555316090225</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9939827312051154</v>
+        <v>0.9925259525569678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9908158490196504</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9942994274504328</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8863056064586609</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9908160898227768</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9910692541765295</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.9455918980985383</v>
+        <v>0.9926525347338442</v>
       </c>
     </row>
     <row r="10">
@@ -773,34 +628,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9790982083444705</v>
+        <v>0.9762477013334874</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9674441396947099</v>
+        <v>0.9749812374230533</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9840383647541279</v>
+        <v>0.957562823529034</v>
       </c>
       <c r="E10" t="n">
-        <v>0.994742946675753</v>
+        <v>0.9925895647162417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9905620023903724</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9941728854074109</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8864962824010639</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9908159694212136</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9910059630880914</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9438815938919485</v>
+        <v>0.991512693134141</v>
       </c>
     </row>
     <row r="11">
@@ -808,34 +648,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9788450038568633</v>
+        <v>0.9765645581142225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9677599128613752</v>
+        <v>0.9746014106247156</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9856851772030076</v>
+        <v>0.95705641455382</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9937930184752185</v>
+        <v>0.9929693112468705</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9911323445956957</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9940461025612624</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.8848489080782225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9907525177973578</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9908161299566315</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.946161638296045</v>
+        <v>0.9929063010954133</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,45 +690,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>LightGBM</t>
         </is>
@@ -914,34 +714,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9782637551781923</v>
+        <v>0.9761536345104656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9674201831618184</v>
+        <v>0.9734449869628223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9853379589804003</v>
+        <v>0.9583532629474162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9943306395248811</v>
+        <v>0.9927605100950011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9895698598065344</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9942666937847996</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8867509776008733</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9911681696254678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9906573836327105</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9448752573453394</v>
+        <v>0.9929457047370583</v>
       </c>
     </row>
     <row r="3">
@@ -949,34 +734,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9783902291068859</v>
+        <v>0.976548168243192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.967369601279216</v>
+        <v>0.9744023382494857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9848179637279735</v>
+        <v>0.9550495472183366</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9934452061365778</v>
+        <v>0.9924451853099925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9907105247750071</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9936918635817189</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8895295092080995</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9899701523643891</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9916742055874954</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9440744955720805</v>
+        <v>0.9932540870908799</v>
       </c>
     </row>
     <row r="4">
@@ -984,34 +754,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9780028538331903</v>
+        <v>0.9768245920558132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9667696526968357</v>
+        <v>0.9742875604433412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9835781622712325</v>
+        <v>0.9593465269716457</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9932512012018349</v>
+        <v>0.9920625931487402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.990594978133374</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9943924727327659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8919242302551474</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9900323861124768</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9908549214242139</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9442588831819172</v>
+        <v>0.9924310580826032</v>
       </c>
     </row>
     <row r="5">
@@ -1019,34 +774,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9782603380182227</v>
+        <v>0.9762983054181078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9677795342287752</v>
+        <v>0.9720166493068472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9858904359384137</v>
+        <v>0.9574714295221811</v>
       </c>
       <c r="E5" t="n">
-        <v>0.993896587718841</v>
+        <v>0.9916791689476707</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9898272541154437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9947703835061448</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8922452851270173</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9907823433548846</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9911012504985554</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9433271236840032</v>
+        <v>0.9927477871914554</v>
       </c>
     </row>
     <row r="6">
@@ -1054,34 +794,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9787120169217106</v>
+        <v>0.9765029539697005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9674951610194291</v>
+        <v>0.9727974337071211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9850298139365462</v>
+        <v>0.9567601931507792</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9918356418373012</v>
+        <v>0.9923796535343605</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9891900057807115</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9943272271698407</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8904770505549372</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9902718590769796</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.990529536030978</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9441497126775399</v>
+        <v>0.9923149771245837</v>
       </c>
     </row>
     <row r="7">
@@ -1089,34 +814,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9778676478603405</v>
+        <v>0.9760912544710125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9672408951977381</v>
+        <v>0.9720284512126204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9855261450597623</v>
+        <v>0.9562801909864271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9942062971167746</v>
+        <v>0.9927551094385774</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9884814312422915</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9950865629191881</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8893502253813862</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9907271749760005</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9912250525120576</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9442062798041283</v>
+        <v>0.9926889276018253</v>
       </c>
     </row>
     <row r="8">
@@ -1124,34 +834,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9783893469061278</v>
+        <v>0.9759703931925831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9669058083299327</v>
+        <v>0.9732196484013731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.986646012026138</v>
+        <v>0.9572321399767183</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9909762049476962</v>
+        <v>0.992634717774779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9906480848324621</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9945179286944354</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.8895150741591544</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9904103545994067</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9910391116120676</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.943320952372245</v>
+        <v>0.9931928636616935</v>
       </c>
     </row>
     <row r="9">
@@ -1159,34 +854,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9787909597329767</v>
+        <v>0.9764971266418619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9665814233634101</v>
+        <v>0.9733633215490473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9853065237815546</v>
+        <v>0.9557661987270905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9940158075980845</v>
+        <v>0.9925669841950789</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9908450165861703</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9943246983245985</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8895313713436461</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9908512758649692</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.991101303334454</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.944070293599634</v>
+        <v>0.9926881989860469</v>
       </c>
     </row>
     <row r="10">
@@ -1194,34 +874,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.978846790392995</v>
+        <v>0.9758988480343161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9666754277067277</v>
+        <v>0.974792363570715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9841187839787819</v>
+        <v>0.9562810224600995</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9947756180830385</v>
+        <v>0.9926320076460218</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9906030562036465</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9941984806439997</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8898266023842428</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9908479365853893</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9910377626517765</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9422952303748549</v>
+        <v>0.9915493404028648</v>
       </c>
     </row>
     <row r="11">
@@ -1229,34 +894,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9785908453877049</v>
+        <v>0.9762480621120705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9670349938954143</v>
+        <v>0.9744261042874337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9857518901510005</v>
+        <v>0.9557450997528256</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9938537393336221</v>
+        <v>0.9930146777612432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9911529490074091</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9940731933349556</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.88762065549488</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9907874846985203</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9908509731551772</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.9445801486864633</v>
+        <v>0.9929409286580212</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,45 +936,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>LightGBM</t>
         </is>
@@ -1335,34 +960,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9578270902820248</v>
+        <v>0.9540617138389564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9382454934648145</v>
+        <v>0.9573220556988202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9825520324331821</v>
+        <v>0.9249380528741573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9912137538381997</v>
+        <v>0.989958418188811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9828026582094915</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9903349873583727</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9007235045995348</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9863181970076227</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9854389576489726</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.911760181081064</v>
+        <v>0.9894566937573691</v>
       </c>
     </row>
     <row r="3">
@@ -1370,34 +980,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9582019255625681</v>
+        <v>0.9548128030365126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9382436019495216</v>
+        <v>0.9583281842083693</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9812962239049703</v>
+        <v>0.9189145224239139</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9894570090099177</v>
+        <v>0.989457009009918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9849359722073352</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9890801245878071</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9072380408945607</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9848125508344735</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.986946180084866</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9105018505324616</v>
+        <v>0.9894557479997225</v>
       </c>
     </row>
     <row r="4">
@@ -1405,34 +1000,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9573226862039179</v>
+        <v>0.9553143698416801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9372393649552657</v>
+        <v>0.9585772337219346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9807957604837234</v>
+        <v>0.9263213810583659</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9892059103547851</v>
+        <v>0.9885785577826397</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9854395881540702</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9905864012660542</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9175343467651936</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9850631766107829</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9863183546338974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9101279610095648</v>
+        <v>0.9879494713214756</v>
       </c>
     </row>
     <row r="5">
@@ -1440,34 +1020,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.957825198766732</v>
+        <v>0.9543137582517355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9389968979149195</v>
+        <v>0.9550632711865475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9824284534340461</v>
+        <v>0.9228074185229789</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9918417369154428</v>
+        <v>0.9880743113308069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9834306412867349</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9912140690907487</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9164070036506246</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9855642705371274</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9864450861585216</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9093757684280878</v>
+        <v>0.9885782425300909</v>
       </c>
     </row>
     <row r="6">
@@ -1475,34 +1040,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.958704753377931</v>
+        <v>0.9548148521780799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9383684419588534</v>
+        <v>0.9561964464732698</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9826779758264346</v>
+        <v>0.9226803717458056</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9865700837941274</v>
+        <v>0.9890798093352583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9828040768459612</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.990585928387231</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9077424449726677</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9845628708158104</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9849388094802745</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9095036033366328</v>
+        <v>0.9889538659420062</v>
       </c>
     </row>
     <row r="7">
@@ -1510,34 +1060,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9570723756801574</v>
+        <v>0.9541845047067206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9382469121012843</v>
+        <v>0.9539330907990392</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9829273405925487</v>
+        <v>0.9209196862606636</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9909628128093416</v>
+        <v>0.9890796517089842</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9809224920083478</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9915906382603102</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9076248557719589</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9860678864838622</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.986193199372017</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9103817393113625</v>
+        <v>0.9888299716903211</v>
       </c>
     </row>
     <row r="8">
@@ -1545,34 +1080,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9580775584320598</v>
+        <v>0.9540606104550357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9373649930959692</v>
+        <v>0.9579506692811612</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9830545449959963</v>
+        <v>0.9241869636766014</v>
       </c>
       <c r="E8" t="n">
-        <v>0.990836396537266</v>
+        <v>0.989707161907404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9841845677572303</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9909632856881648</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9073724961066312</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9854399034066189</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9859406820804146</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.9091232511364856</v>
+        <v>0.989080439840356</v>
       </c>
     </row>
     <row r="9">
@@ -1580,34 +1100,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9590799039110232</v>
+        <v>0.9548132759153359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9371156283298552</v>
+        <v>0.9588302238923603</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9809228072608966</v>
+        <v>0.9201703309521259</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9908367117898148</v>
+        <v>0.9890796517089839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9853150633972876</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9899582605625368</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9082485829397932</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9859419430906098</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9861938298771145</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.9101298525248577</v>
+        <v>0.9887030825394223</v>
       </c>
     </row>
     <row r="10">
@@ -1615,34 +1120,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9589558520330638</v>
+        <v>0.9535588860235936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9372426751070281</v>
+        <v>0.9590806920423953</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9802927750420862</v>
+        <v>0.9206750502827816</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9922192518426511</v>
+        <v>0.9892057527285107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9859413125855122</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9902101473490411</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9097513918400031</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9856910020617515</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9859419430906098</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9083721619389294</v>
+        <v>0.9871977516188217</v>
       </c>
     </row>
     <row r="11">
@@ -1650,34 +1140,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9588310120237322</v>
+        <v>0.9546887511585531</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9376167222561994</v>
+        <v>0.9592088422034892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9815482683177494</v>
+        <v>0.9194181383706488</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9927206610215444</v>
+        <v>0.9904601426202531</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9848119203293759</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9898323171692842</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9023459518420207</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9856913173143005</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9859435193533539</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.9096262365781227</v>
+        <v>0.9893316961217631</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,45 +1182,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>LightGBM</t>
         </is>
@@ -1756,34 +1206,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9974257841479828</v>
+        <v>0.9976775344728663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9696766730989379</v>
+        <v>0.9822625471910165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9986760699111148</v>
+        <v>0.964337810536145</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9973510181190355</v>
+        <v>0.9992423663119603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9936515929526291</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.998052248610966</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.889837545090395</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9992431727626055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9981111373436349</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9467460350289112</v>
+        <v>0.99924333038888</v>
       </c>
     </row>
     <row r="3">
@@ -1791,34 +1226,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9978034778661184</v>
+        <v>0.9982426246666204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9701789703869939</v>
+        <v>0.9825710159645581</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9982887521446686</v>
+        <v>0.9613916968090299</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9971025597813569</v>
+        <v>0.9993700042650204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.994273477562799</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9981791589265179</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8885011833957268</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9990527178938138</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9986796799962487</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.947762647748242</v>
+        <v>0.9991817196802394</v>
       </c>
     </row>
     <row r="4">
@@ -1826,34 +1246,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9978662919364704</v>
+        <v>0.9983043930015356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9699292903683308</v>
+        <v>0.9827671752347374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9983555789019801</v>
+        <v>0.9643429363901589</v>
       </c>
       <c r="E4" t="n">
-        <v>0.997354943456718</v>
+        <v>0.9993072690078059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9942133066552813</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9978622877856506</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8887155923248059</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9995582888498011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9983006252901271</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9484539795155177</v>
+        <v>0.9993711288135945</v>
       </c>
     </row>
     <row r="5">
@@ -1861,34 +1266,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9976763311111549</v>
+        <v>0.9977395392471928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9701784186950331</v>
+        <v>0.9804330055699395</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9990516750037568</v>
+        <v>0.9633382025070464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9968942966170674</v>
+        <v>0.9991152167116167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.994278630272226</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9982985366646332</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8899897202642716</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9988669216909727</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9983659248970387</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9470221564590492</v>
+        <v>0.9992422846534431</v>
       </c>
     </row>
     <row r="6">
@@ -1896,34 +1286,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9979906379023256</v>
+        <v>0.9981801258488175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9699279717096516</v>
+        <v>0.9816915978149805</v>
       </c>
       <c r="D6" t="n">
-        <v>0.998418387281572</v>
+        <v>0.9622005683552386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9962292372534727</v>
+        <v>0.9991179386875881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9933940622586009</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9977964969806423</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8890121450608396</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9989923105468843</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9986810409842342</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9481428732699019</v>
+        <v>0.9989900642951165</v>
       </c>
     </row>
     <row r="7">
@@ -1931,34 +1306,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.997739223994644</v>
+        <v>0.9980532943464027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9696792557679081</v>
+        <v>0.9817627777688271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99835501867388</v>
+        <v>0.9634630876910641</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9985509174946143</v>
+        <v>0.9990562491658104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9934544667601501</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9986797588093858</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8881385685151555</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9988026678194979</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9981717023168384</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9484625508906376</v>
+        <v>0.9991817196802394</v>
       </c>
     </row>
     <row r="8">
@@ -1966,34 +1326,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9977408214220412</v>
+        <v>0.9979275873925622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9706201086805788</v>
+        <v>0.9822699278329386</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9988617929915786</v>
+        <v>0.9628899497117438</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9946580578559541</v>
+        <v>0.9993711288135945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9940859291516657</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.997926544502505</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.8890848251549572</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9990575313406588</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9982403784148524</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.9489716742832748</v>
+        <v>0.9993712076267315</v>
       </c>
     </row>
     <row r="9">
@@ -2001,34 +1346,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9978652462010335</v>
+        <v>0.9976151932813379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9698655517049858</v>
+        <v>0.981553941747924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9988017797103353</v>
+        <v>0.9614533075176703</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9972185610283703</v>
+        <v>0.999307347820943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9944639226484572</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9983032684529614</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.889352965879754</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9994943502308754</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9984264898702422</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.9482698652439708</v>
+        <v>0.9991806739448025</v>
       </c>
     </row>
     <row r="10">
@@ -2036,34 +1366,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9974266722571452</v>
+        <v>0.9976767251768409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.969733985568863</v>
+        <v>0.9813686241146659</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9987355948396412</v>
+        <v>0.9609531650397323</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979849391916977</v>
+        <v>0.9993002852769497</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9954080013637091</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9976114255699293</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8893889051437338</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9993072690078059</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9984242436184741</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9466294723068041</v>
+        <v>0.9990539212555249</v>
       </c>
     </row>
     <row r="11">
@@ -2071,34 +1386,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.998556222139556</v>
+        <v>0.9973628124513567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9697401359936606</v>
+        <v>0.9824486940379595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9986681249487187</v>
+        <v>0.9622059546586973</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9965793324653862</v>
+        <v>0.9994955535925867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9936425234416593</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9981161084167545</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.888435120393688</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9994292870633753</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9975489267521264</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.9483516137567808</v>
+        <v>0.9992458159254397</v>
       </c>
     </row>
   </sheetData>
